--- a/docs/rr-communication.xlsx
+++ b/docs/rr-communication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="421">
   <si>
     <t>Path</t>
   </si>
@@ -333,6 +333,30 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-status-reason}
+</t>
+  </si>
+  <si>
+    <t>eICR Processing Status Reason</t>
+  </si>
+  <si>
+    <t>If the PHA system (or its intermediary) identifies an issue with the eICR, this will contain those issues as a warning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RR.eICRProcessing.statusReason</t>
+  </si>
+  <si>
     <t>warningReason</t>
   </si>
   <si>
@@ -344,14 +368,6 @@
   </si>
   <si>
     <t>If the PHA system (or its intermediary) identifies an issue with the eICR, but is still able to process the file, this will contain those issues as a warning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>RR.eICRProcessing.warningReason</t>
@@ -1471,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2964,32 +2980,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>125</v>
@@ -2997,9 +3015,7 @@
       <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3048,7 +3064,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3057,13 +3073,13 @@
         <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3072,16 +3088,16 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3091,24 +3107,26 @@
         <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3157,7 +3175,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3172,21 +3190,21 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3209,13 +3227,13 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3266,7 +3284,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3281,25 +3299,25 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3309,7 +3327,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3318,17 +3336,15 @@
         <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3377,7 +3393,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3392,10 +3408,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3406,11 +3422,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3429,15 +3445,17 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3486,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3513,42 +3531,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3573,13 +3589,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3600,10 +3616,10 @@
         <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3612,13 +3628,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3626,7 +3642,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3634,7 +3650,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3649,20 +3665,18 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3686,13 +3700,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3710,10 +3724,10 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>51</v>
@@ -3725,13 +3739,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3739,7 +3753,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3756,22 +3770,26 @@
         <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3795,60 +3813,60 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3859,7 +3877,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -3868,20 +3886,18 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3906,71 +3922,71 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -3982,16 +3998,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4017,31 +4033,29 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4056,35 +4070,37 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4093,15 +4109,17 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4126,14 +4144,14 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4150,7 +4168,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4165,50 +4183,50 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4235,13 +4253,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4265,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4274,13 +4292,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4288,18 +4306,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -4308,20 +4326,18 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4370,13 +4386,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4385,21 +4401,21 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4410,10 +4426,10 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4422,15 +4438,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4479,47 +4497,47 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4531,7 +4549,7 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>221</v>
@@ -4539,9 +4557,7 @@
       <c r="L28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4578,64 +4594,62 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>219</v>
-      </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B29" t="s" s="2">
         <v>225</v>
       </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4644,15 +4658,17 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4689,19 +4705,19 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4725,14 +4741,16 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4753,13 +4771,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4810,13 +4828,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4825,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -4834,23 +4852,23 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4862,7 +4880,7 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>221</v>
@@ -4870,9 +4888,7 @@
       <c r="L31" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4909,59 +4925,59 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4973,16 +4989,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4990,7 +5006,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>40</v>
@@ -5020,25 +5036,25 @@
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5056,12 +5072,12 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5069,7 +5085,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
@@ -5084,22 +5100,24 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5141,10 +5159,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5168,13 +5186,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5186,7 +5202,7 @@
         <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5195,13 +5211,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5252,13 +5268,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5267,7 +5283,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -5276,14 +5292,16 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5304,13 +5322,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5361,13 +5379,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5376,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -5385,23 +5403,23 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5413,7 +5431,7 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>221</v>
@@ -5421,9 +5439,7 @@
       <c r="L36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5460,59 +5476,59 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5524,16 +5540,16 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5541,7 +5557,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>40</v>
@@ -5571,25 +5587,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5607,12 +5623,12 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5620,7 +5636,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5635,22 +5651,24 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>40</v>
@@ -5668,13 +5686,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5692,10 +5710,10 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5721,7 +5739,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5741,20 +5759,18 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5779,13 +5795,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5803,7 +5819,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5812,7 +5828,7 @@
         <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
@@ -5832,7 +5848,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5855,16 +5871,16 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5914,17 +5930,17 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5938,12 +5954,12 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5966,16 +5982,16 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6025,34 +6041,34 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>93</v>
-      </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>266</v>
       </c>
@@ -6065,28 +6081,28 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6136,13 +6152,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6151,21 +6167,21 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6176,10 +6192,10 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6188,15 +6204,17 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6245,13 +6263,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6260,32 +6278,32 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6297,7 +6315,7 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>221</v>
@@ -6305,9 +6323,7 @@
       <c r="L44" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6344,64 +6360,62 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>219</v>
-      </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6410,15 +6424,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6455,19 +6471,19 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6482,23 +6498,25 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
+      <c r="B46" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6510,7 +6528,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -6519,13 +6537,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6576,13 +6594,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6591,7 +6609,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -6600,23 +6618,23 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6628,7 +6646,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>221</v>
@@ -6636,9 +6654,7 @@
       <c r="L47" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6675,59 +6691,59 @@
         <v>40</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6739,16 +6755,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6756,7 +6772,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
@@ -6786,25 +6802,25 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6822,12 +6838,12 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6835,7 +6851,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -6850,22 +6866,24 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>40</v>
@@ -6907,10 +6925,10 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -6934,13 +6952,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6949,10 +6965,10 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -6961,13 +6977,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7018,13 +7034,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7033,7 +7049,7 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -7042,14 +7058,16 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7058,10 +7076,10 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7070,13 +7088,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7127,13 +7145,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7142,7 +7160,7 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -7151,23 +7169,23 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7179,7 +7197,7 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>221</v>
@@ -7187,9 +7205,7 @@
       <c r="L52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7226,59 +7242,59 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7290,16 +7306,16 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7307,7 +7323,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>40</v>
@@ -7337,25 +7353,25 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7373,12 +7389,12 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7386,7 +7402,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
@@ -7401,22 +7417,24 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>40</v>
@@ -7434,13 +7452,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7458,10 +7476,10 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>51</v>
@@ -7485,13 +7503,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7503,7 +7519,7 @@
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7512,13 +7528,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>294</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7545,13 +7561,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7569,13 +7585,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7584,7 +7600,7 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -7593,14 +7609,16 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7612,7 +7630,7 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7621,13 +7639,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7678,13 +7696,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7693,7 +7711,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -7702,23 +7720,23 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7730,7 +7748,7 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>221</v>
@@ -7738,9 +7756,7 @@
       <c r="L57" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7777,59 +7793,59 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7841,16 +7857,16 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7858,7 +7874,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -7888,25 +7904,25 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7924,12 +7940,12 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7937,7 +7953,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7952,22 +7968,24 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>40</v>
@@ -7985,13 +8003,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -8009,10 +8027,10 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>51</v>
@@ -8036,13 +8054,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8054,7 +8070,7 @@
         <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8063,13 +8079,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8096,13 +8112,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8120,13 +8136,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8135,7 +8151,7 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8144,14 +8160,16 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8163,7 +8181,7 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8172,13 +8190,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8229,13 +8247,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8244,7 +8262,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -8253,23 +8271,23 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8281,7 +8299,7 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>221</v>
@@ -8289,9 +8307,7 @@
       <c r="L62" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8328,59 +8344,59 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE62" t="s" s="2">
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8392,16 +8408,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8409,7 +8425,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
@@ -8439,25 +8455,25 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8475,12 +8491,12 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8488,7 +8504,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
@@ -8503,22 +8519,24 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8560,10 +8578,10 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>51</v>
@@ -8589,7 +8607,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8609,20 +8627,18 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8671,7 +8687,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8680,7 +8696,7 @@
         <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
@@ -8700,7 +8716,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8723,16 +8739,16 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8782,17 +8798,17 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8806,16 +8822,14 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8827,7 +8841,7 @@
         <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -8836,16 +8850,16 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8895,40 +8909,42 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>93</v>
-      </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C68" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8938,7 +8954,7 @@
         <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8947,15 +8963,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M68" s="2"/>
+      <c r="M68" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9004,7 +9022,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9019,25 +9037,25 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9053,7 +9071,7 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>322</v>
@@ -9113,7 +9131,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9134,7 +9152,7 @@
         <v>325</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9142,7 +9160,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9165,7 +9183,7 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>328</v>
@@ -9222,7 +9240,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9237,10 +9255,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>331</v>
@@ -9249,13 +9267,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>332</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9265,7 +9283,7 @@
         <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -9274,17 +9292,15 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9348,25 +9364,25 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9376,7 +9392,7 @@
         <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -9385,15 +9401,17 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9442,7 +9460,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9457,32 +9475,32 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9494,7 +9512,7 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>221</v>
@@ -9502,9 +9520,7 @@
       <c r="L73" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9541,64 +9557,62 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE73" t="s" s="2">
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>219</v>
-      </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9607,16 +9621,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9654,19 +9668,19 @@
         <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9681,25 +9695,27 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
+      <c r="B75" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9709,7 +9725,7 @@
         <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9718,15 +9734,17 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9775,13 +9793,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9790,7 +9808,7 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
@@ -9799,23 +9817,23 @@
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9827,7 +9845,7 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>221</v>
@@ -9835,9 +9853,7 @@
       <c r="L76" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9874,59 +9890,59 @@
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9938,16 +9954,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9955,7 +9971,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>40</v>
@@ -9985,25 +10001,25 @@
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -10021,12 +10037,12 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10034,7 +10050,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>51</v>
@@ -10049,22 +10065,24 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>40</v>
@@ -10106,10 +10124,10 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>51</v>
@@ -10135,7 +10153,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10155,20 +10173,18 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10217,7 +10233,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10226,7 +10242,7 @@
         <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>40</v>
@@ -10246,7 +10262,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10269,16 +10285,16 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10328,17 +10344,17 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH80" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10352,12 +10368,12 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10380,16 +10396,16 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10439,50 +10455,50 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>93</v>
-      </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -10491,16 +10507,16 @@
         <v>43</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10526,64 +10542,64 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10593,7 +10609,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -10602,15 +10618,17 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10635,13 +10653,13 @@
         <v>40</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
@@ -10659,7 +10677,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10674,21 +10692,21 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
         <v>372</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10702,22 +10720,22 @@
         <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J84" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10768,7 +10786,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10780,22 +10798,22 @@
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>378</v>
       </c>
@@ -10808,10 +10826,10 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -10820,13 +10838,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10877,22 +10895,22 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -10901,12 +10919,12 @@
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10917,7 +10935,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10929,13 +10947,13 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10974,50 +10992,50 @@
         <v>40</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB86" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>40</v>
-      </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11026,10 +11044,10 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -11038,13 +11056,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>382</v>
+        <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>383</v>
+        <v>97</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11083,19 +11101,17 @@
         <v>40</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11104,13 +11120,13 @@
         <v>42</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
@@ -11124,7 +11140,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>385</v>
@@ -11206,7 +11222,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11233,42 +11249,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>125</v>
+        <v>392</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11317,7 +11333,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>393</v>
+        <v>229</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11326,13 +11342,13 @@
         <v>42</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
@@ -11341,43 +11357,45 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M90" s="2"/>
+      <c r="M90" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11426,13 +11444,13 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
@@ -11450,12 +11468,12 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11463,7 +11481,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>51</v>
@@ -11478,13 +11496,13 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>216</v>
+        <v>401</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>217</v>
+        <v>402</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11535,10 +11553,10 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>51</v>
@@ -11559,23 +11577,23 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11587,7 +11605,7 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>221</v>
@@ -11595,9 +11613,7 @@
       <c r="L92" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11634,80 +11650,80 @@
         <v>40</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE92" t="s" s="2">
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>219</v>
-      </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
+        <v>227</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11745,34 +11761,34 @@
         <v>40</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>40</v>
@@ -11781,12 +11797,12 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11809,16 +11825,16 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -11868,22 +11884,22 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>40</v>
@@ -11892,12 +11908,12 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>260</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11920,16 +11936,16 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -11979,36 +11995,36 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12019,7 +12035,7 @@
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>43</v>
@@ -12028,10 +12044,10 @@
         <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>412</v>
+        <v>220</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>413</v>
@@ -12039,7 +12055,9 @@
       <c r="L96" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
@@ -12088,35 +12106,144 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
+      <c r="G97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM96">
+  <autoFilter ref="A1:AM97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12126,7 +12253,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/rr-communication.xlsx
+++ b/docs/rr-communication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -340,7 +340,10 @@
 </t>
   </si>
   <si>
-    <t>eICR Processing Status Reason</t>
+    <t>eICR processing status reason</t>
+  </si>
+  <si>
+    <t>Details about eICR processing Warnings or Errors.</t>
   </si>
   <si>
     <t>If the PHA system (or its intermediary) identifies an issue with the eICR, this will contain those issues as a warning.</t>
@@ -354,71 +357,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RR.eICRProcessing.statusReason</t>
-  </si>
-  <si>
-    <t>warningReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-warning-reason}
-</t>
-  </si>
-  <si>
-    <t>eICR Processing Warning Reason</t>
-  </si>
-  <si>
-    <t>If the PHA system (or its intermediary) identifies an issue with the eICR, but is still able to process the file, this will contain those issues as a warning.</t>
-  </si>
-  <si>
-    <t>RR.eICRProcessing.warningReason</t>
-  </si>
-  <si>
-    <t>inactiveRCTCCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-inactive-code}
-</t>
-  </si>
-  <si>
-    <t>Inactive RCTC Code</t>
-  </si>
-  <si>
-    <t>Code, codeSystem, valueSet, valueSetVersion of a code that exists within the RCTC but has been labeled as inactive.</t>
-  </si>
-  <si>
-    <t>RR.eICRProcessing.inactiveRCTCCode</t>
-  </si>
-  <si>
-    <t>expectedRCTCCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-expected-version}
-</t>
-  </si>
-  <si>
-    <t>Expected RCTC Version</t>
-  </si>
-  <si>
-    <t>The version of the RCTC that was expected by RCKMS. If populated, the EHR System Administrator should update to this version of the RCTC immediately.</t>
-  </si>
-  <si>
-    <t>RR.eICRProcessing.expectedRCTCVersion</t>
-  </si>
-  <si>
-    <t>outdatedRCTCCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-outdated-version}
-</t>
-  </si>
-  <si>
-    <t>Outdated RCTC Version</t>
-  </si>
-  <si>
-    <t>If the version of the RCTC that was used to generate the eICR is outdated, the specific version used.</t>
-  </si>
-  <si>
-    <t>RR.eICRProcessing.outdatedRCTCVersion</t>
+    <t>RR.eICRProcessing.errorReason, RR.eICRProcessing.warningReason</t>
   </si>
   <si>
     <t>Communication.modifierExtension</t>
@@ -557,19 +496,16 @@
 </t>
   </si>
   <si>
-    <t>eICR Processing Error Reason</t>
-  </si>
-  <si>
-    <t>If the incoming eICR was not processed by the PHA system (or its intermediary), will contain the reason it was not processed.</t>
+    <t>Communication did not occur</t>
+  </si>
+  <si>
+    <t>If true, indicates that the described communication event did not actually occur.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because it marks the communication as a communication that did not occur.  The more attributes are populated, the more constrained the negated statement is.</t>
   </si>
   <si>
     <t>Creating a Communication where notDone is true is intended for situations where there's a need for a specific statement in the record about something not being done.  If the need is merely to indicate that a request wasn't fulfilled, that should be handled using Task.</t>
-  </si>
-  <si>
-    <t>RR.eICRProcessing.errorReason</t>
   </si>
   <si>
     <t>Event.notDone</t>
@@ -582,10 +518,19 @@
 </t>
   </si>
   <si>
-    <t>If the incoming eICR was not processed by the PHA system (or its intermediary), will contain the reason it was not processed</t>
-  </si>
-  <si>
-    <t>http://fhir.hl7.org/us/ecr/ValueSet/error-reason</t>
+    <t>Why communication did not occur</t>
+  </si>
+  <si>
+    <t>Describes why the communication event did not occur in coded and/or textual form.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for the reason why a communication was not done.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-not-done-reason</t>
   </si>
   <si>
     <t xml:space="preserve">com-1
@@ -607,9 +552,6 @@
     <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
   </si>
   <si>
@@ -742,10 +684,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>primaryAgency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-primary-agency}
+    <t>locationRelevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-location-relevance}
 </t>
   </si>
   <si>
@@ -755,7 +697,7 @@
     <t>A code indicating whether the responsible PHA is relevant because of the patient's home address, the provider facility address, or both.</t>
   </si>
   <si>
-    <t>RR.responsibleAgency.primary</t>
+    <t>RR.locationRelevance</t>
   </si>
   <si>
     <t>Communication.recipient.extension.id</t>
@@ -776,13 +718,13 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-primary-agency"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-location-relevance"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Communication.recipient.extension.valueBoolean</t>
+    <t>Communication.recipient.extension.valueCode</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -791,29 +733,13 @@
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
+    <t>Indicates whether the responsible PHA is relevant because of the patient's home address, the provider facility address, or both</t>
+  </si>
+  <si>
+    <t>ValueSet/lr-codes</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>locationRelevance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-loc-relevance}
-</t>
-  </si>
-  <si>
-    <t>RR.locationRelevance</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-loc-relevance"/&gt;</t>
-  </si>
-  <si>
-    <t>Communication.recipient.extension.valueCode</t>
-  </si>
-  <si>
-    <t>Indicates whether the responsible PHA is relevant because of the patient's home address, the provider facility address, or both</t>
-  </si>
-  <si>
-    <t>ValueSet/lr-codes</t>
   </si>
   <si>
     <t>Communication.recipient.reference</t>
@@ -877,7 +803,7 @@
 </t>
   </si>
   <si>
-    <t>What</t>
+    <t>Reportability Response summary</t>
   </si>
   <si>
     <t>What this RR Communcation is about.</t>
@@ -896,6 +822,40 @@
   </si>
   <si>
     <t>Communication.topic.extension</t>
+  </si>
+  <si>
+    <t>topicSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-topic-subject}
+</t>
+  </si>
+  <si>
+    <t>Subject line</t>
+  </si>
+  <si>
+    <t>A succinct, human-readable narrative text that can be used as a subject header in a message queue, much like an email subject.</t>
+  </si>
+  <si>
+    <t>The `text` elelement can be used without any codings.</t>
+  </si>
+  <si>
+    <t>RR.subject</t>
+  </si>
+  <si>
+    <t>Communication.topic.extension.id</t>
+  </si>
+  <si>
+    <t>Communication.topic.extension.extension</t>
+  </si>
+  <si>
+    <t>Communication.topic.extension.url</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-topic-subject"/&gt;</t>
+  </si>
+  <si>
+    <t>Communication.topic.extension.valueCodeableConcept</t>
   </si>
   <si>
     <t>topicSummary</t>
@@ -914,19 +874,14 @@
     <t>RR.summary</t>
   </si>
   <si>
-    <t>Communication.topic.extension.id</t>
-  </si>
-  <si>
-    <t>Communication.topic.extension.extension</t>
-  </si>
-  <si>
-    <t>Communication.topic.extension.url</t>
-  </si>
-  <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-topic-summary"/&gt;</t>
   </si>
   <si>
-    <t>Communication.topic.extension.valueString</t>
+    <t>Communication.topic.extension.valueMarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
   </si>
   <si>
     <t>topicReportable</t>
@@ -951,7 +906,10 @@
     <t>Communication.topic.extension.valueCode</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/v2-0532</t>
+    <t>The determination of reportability generated by the PHA system (or its intermediary).</t>
+  </si>
+  <si>
+    <t>http://fhir.hl7.org/us/ecr/ValueSet/dor</t>
   </si>
   <si>
     <t>topicReportableReason</t>
@@ -973,9 +931,6 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-topic-dor-reason"/&gt;</t>
   </si>
   <si>
-    <t>Communication.topic.extension.valueCodeableConcept</t>
-  </si>
-  <si>
     <t>A reason code indicating the reason for the reportability status</t>
   </si>
   <si>
@@ -1001,6 +956,9 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-topic-dor-rule"/&gt;</t>
   </si>
   <si>
+    <t>Communication.topic.extension.valueString</t>
+  </si>
+  <si>
     <t>Communication.topic.reference</t>
   </si>
   <si>
@@ -1008,18 +966,6 @@
   </si>
   <si>
     <t>Communication.topic.display</t>
-  </si>
-  <si>
-    <t>topicSubject</t>
-  </si>
-  <si>
-    <t>Subject line</t>
-  </si>
-  <si>
-    <t>A succinct, human-readable narrative text that can be used as a subject header in a message queue, much like an email subject.</t>
-  </si>
-  <si>
-    <t>RR.subject</t>
   </si>
   <si>
     <t>Communication.context</t>
@@ -1111,21 +1057,18 @@
     <t>Communication.sender.extension</t>
   </si>
   <si>
-    <t>onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility
+    <t>SenderRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PractitionerRole
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-on-behalf-of}
+    <t xml:space="preserve">Extension {http://fhir.hl7.org/us/ecr/StructureDefinition/extension-practitioner-role}
 </t>
   </si>
   <si>
-    <t>If representing both a sending Provider and a  sending Facility use this Extension to represent the Facility.</t>
-  </si>
-  <si>
-    <t>RR.facility</t>
+    <t>If representing both a sending Provider and a  sending Facility use this Extension to reference PractitiionerRole.</t>
   </si>
   <si>
     <t>Communication.sender.extension.id</t>
@@ -1137,10 +1080,14 @@
     <t>Communication.sender.extension.url</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-on-behalf-of"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.hl7.org/us/ecr/StructureDefinition/extension-practitioner-role"/&gt;</t>
   </si>
   <si>
     <t>Communication.sender.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole}
+</t>
   </si>
   <si>
     <t>Communication.sender.reference</t>
@@ -1487,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1519,8 +1466,8 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="130.640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.55078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -1531,7 +1478,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="39.78515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="64.109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="67.87109375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="45.44921875" customWidth="true" bestFit="true"/>
@@ -2572,7 +2519,9 @@
         <v>104</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2629,13 +2578,13 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -2647,42 +2596,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2731,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2740,13 +2689,13 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -2755,16 +2704,14 @@
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2773,7 +2720,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>43</v>
@@ -2782,16 +2729,16 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2842,7 +2789,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2851,19 +2798,19 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2871,11 +2818,9 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2884,7 +2829,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
@@ -2893,16 +2838,16 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2953,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2962,16 +2907,16 @@
         <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2980,42 +2925,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3064,7 +3009,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3073,16 +3018,16 @@
         <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3093,11 +3038,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3110,23 +3055,21 @@
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3175,7 +3118,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3193,18 +3136,18 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3212,30 +3155,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3260,13 +3205,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3284,13 +3229,13 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3299,21 +3244,21 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3324,28 +3269,32 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3393,13 +3342,13 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3408,10 +3357,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3422,18 +3371,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3445,17 +3394,15 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3480,13 +3427,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3504,16 +3451,16 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
@@ -3522,7 +3469,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3533,11 +3480,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3547,24 +3494,26 @@
         <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3589,31 +3538,29 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3631,10 +3578,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3642,11 +3589,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3659,22 +3608,22 @@
         <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3700,13 +3649,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3724,13 +3673,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3739,21 +3688,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3764,32 +3713,28 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3813,13 +3758,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3837,13 +3782,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3852,10 +3797,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3866,11 +3811,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3889,13 +3834,13 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3922,13 +3867,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3946,7 +3891,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3955,27 +3900,27 @@
         <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3998,16 +3943,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4033,29 +3978,31 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4070,37 +4017,35 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4109,17 +4054,15 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4144,13 +4087,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4168,13 +4111,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4183,25 +4126,25 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4220,15 +4163,17 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4253,31 +4198,31 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4301,16 +4246,18 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4326,16 +4273,16 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4386,13 +4333,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4401,21 +4348,21 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4426,10 +4373,10 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4438,17 +4385,15 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4497,13 +4442,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4512,32 +4457,32 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4549,15 +4494,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4594,25 +4541,25 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4630,23 +4577,23 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4658,16 +4605,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4675,7 +4622,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>40</v>
@@ -4705,25 +4652,25 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4741,16 +4688,14 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4762,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4771,13 +4716,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4804,13 +4749,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4828,13 +4773,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4843,7 +4788,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -4852,12 +4797,12 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4877,18 +4822,20 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4937,7 +4884,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4946,7 +4893,7 @@
         <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
@@ -4961,23 +4908,23 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4986,19 +4933,19 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5036,25 +4983,25 @@
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5072,12 +5019,12 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5085,7 +5032,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
@@ -5097,19 +5044,19 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5117,7 +5064,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5159,10 +5106,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5186,9 +5133,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5199,10 +5146,10 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5211,15 +5158,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5268,13 +5217,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5283,25 +5232,23 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5313,7 +5260,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5322,13 +5269,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5379,13 +5326,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5394,7 +5341,7 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -5403,23 +5350,23 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5431,15 +5378,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5476,25 +5425,25 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5512,26 +5461,28 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5540,16 +5491,16 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5587,19 +5538,19 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5614,7 +5565,7 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
@@ -5623,12 +5574,12 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5636,7 +5587,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5651,24 +5602,22 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>40</v>
@@ -5710,10 +5659,10 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5734,23 +5683,23 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5762,15 +5711,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5795,37 +5746,37 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5843,12 +5794,12 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5856,7 +5807,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -5868,19 +5819,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5888,7 +5839,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>40</v>
@@ -5930,16 +5881,16 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -5959,7 +5910,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5979,20 +5930,18 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6041,7 +5990,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6065,14 +6014,16 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>265</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6084,26 +6035,24 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6152,13 +6101,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6167,7 +6116,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -6176,12 +6125,12 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6192,10 +6141,10 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6204,17 +6153,15 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6263,13 +6210,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6278,32 +6225,32 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6315,15 +6262,17 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6360,25 +6309,25 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6396,23 +6345,23 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6424,16 +6373,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6441,7 +6390,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -6471,25 +6420,25 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6507,16 +6456,14 @@
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6528,7 +6475,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -6537,13 +6484,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6594,13 +6541,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6609,7 +6556,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -6618,14 +6565,16 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6634,10 +6583,10 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6646,13 +6595,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6703,13 +6652,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6718,7 +6667,7 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -6727,23 +6676,23 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6755,17 +6704,15 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6802,25 +6749,25 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6838,23 +6785,23 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6866,16 +6813,16 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6883,7 +6830,7 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>40</v>
@@ -6913,25 +6860,25 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6949,12 +6896,12 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6962,7 +6909,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6977,22 +6924,24 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -7034,10 +6983,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
@@ -7061,13 +7010,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7076,10 +7023,10 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7088,13 +7035,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>291</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7121,13 +7068,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7145,13 +7092,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7160,7 +7107,7 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -7169,14 +7116,16 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7188,7 +7137,7 @@
         <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7197,13 +7146,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7254,13 +7203,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7269,7 +7218,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -7278,23 +7227,23 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7306,17 +7255,15 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7353,25 +7300,25 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7389,23 +7336,23 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7417,16 +7364,16 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7434,7 +7381,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>40</v>
@@ -7464,25 +7411,25 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7500,12 +7447,12 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7513,7 +7460,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7528,22 +7475,24 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7561,13 +7510,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7585,10 +7534,10 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>51</v>
@@ -7612,13 +7561,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7630,7 +7577,7 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7639,13 +7586,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7672,13 +7619,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7696,13 +7643,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7711,7 +7658,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -7720,14 +7667,16 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7739,7 +7688,7 @@
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -7748,13 +7697,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7805,13 +7754,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7820,7 +7769,7 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -7829,23 +7778,23 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7857,17 +7806,15 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7904,25 +7851,25 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7940,23 +7887,23 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7968,16 +7915,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7985,7 +7932,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>40</v>
@@ -8015,25 +7962,25 @@
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -8051,12 +7998,12 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8064,7 +8011,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>51</v>
@@ -8079,22 +8026,24 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>40</v>
@@ -8112,13 +8061,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8136,10 +8085,10 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>51</v>
@@ -8163,13 +8112,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8181,7 +8128,7 @@
         <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8190,13 +8137,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8247,13 +8194,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8262,7 +8209,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -8271,12 +8218,12 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8296,18 +8243,20 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8356,7 +8305,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8365,7 +8314,7 @@
         <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
@@ -8380,23 +8329,23 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8405,19 +8354,19 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8455,25 +8404,25 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8491,12 +8440,12 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8504,7 +8453,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
@@ -8516,19 +8465,19 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8536,7 +8485,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8578,10 +8527,10 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>51</v>
@@ -8607,11 +8556,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8627,16 +8576,16 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8687,7 +8636,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8705,18 +8654,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8736,20 +8685,18 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8798,7 +8745,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8807,7 +8754,7 @@
         <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
@@ -8816,18 +8763,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8847,20 +8794,18 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8909,7 +8854,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8924,27 +8869,25 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8960,19 +8903,19 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9022,7 +8965,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9037,25 +8980,25 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9071,16 +9014,16 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9131,7 +9074,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9149,29 +9092,29 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9183,15 +9126,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9228,25 +9173,25 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9258,22 +9203,24 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="B71" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
+      <c r="C71" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9283,7 +9230,7 @@
         <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -9292,15 +9239,17 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9349,13 +9298,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9364,25 +9313,25 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9392,7 +9341,7 @@
         <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -9401,17 +9350,15 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9460,7 +9407,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>337</v>
+        <v>205</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9475,32 +9422,32 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9512,15 +9459,17 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9557,25 +9506,25 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9593,23 +9542,23 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9621,16 +9570,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9638,7 +9587,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>40</v>
@@ -9668,25 +9617,25 @@
         <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9704,18 +9653,16 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9725,7 +9672,7 @@
         <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9734,17 +9681,15 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9793,13 +9738,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9808,7 +9753,7 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
@@ -9817,12 +9762,12 @@
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9842,18 +9787,20 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9902,7 +9849,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9911,7 +9858,7 @@
         <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
@@ -9926,23 +9873,23 @@
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9951,19 +9898,19 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10001,25 +9948,25 @@
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -10037,12 +9984,12 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10050,7 +9997,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>51</v>
@@ -10062,19 +10009,19 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10082,7 +10029,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>40</v>
@@ -10124,10 +10071,10 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>51</v>
@@ -10151,40 +10098,42 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10209,13 +10158,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -10233,13 +10182,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -10248,21 +10197,21 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10273,7 +10222,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -10285,17 +10234,15 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>220</v>
+        <v>356</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10344,16 +10291,16 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
@@ -10362,18 +10309,18 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10384,29 +10331,27 @@
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10455,22 +10400,22 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>40</v>
@@ -10479,12 +10424,12 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10504,20 +10449,18 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10566,7 +10509,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10590,16 +10533,16 @@
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10609,26 +10552,24 @@
         <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10653,31 +10594,29 @@
         <v>40</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10692,23 +10631,25 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10717,25 +10658,25 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10786,7 +10727,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10795,29 +10736,31 @@
         <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>377</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10826,7 +10769,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>43</v>
@@ -10838,13 +10781,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10895,7 +10838,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10904,13 +10847,13 @@
         <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -10924,38 +10867,40 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11004,13 +10949,13 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
@@ -11028,12 +10973,12 @@
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11041,10 +10986,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11056,13 +11001,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>97</v>
+        <v>385</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11101,23 +11046,25 @@
         <v>40</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB87" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11138,13 +11085,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11156,7 +11101,7 @@
         <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -11165,13 +11110,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>386</v>
+        <v>202</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>387</v>
+        <v>203</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11222,22 +11167,22 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>40</v>
@@ -11246,28 +11191,26 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -11276,15 +11219,17 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>391</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11321,19 +11266,19 @@
         <v>40</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11342,13 +11287,13 @@
         <v>42</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
@@ -11357,44 +11302,44 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11444,22 +11389,22 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>40</v>
@@ -11471,9 +11416,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11481,30 +11426,32 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>400</v>
+        <v>116</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11553,10 +11500,10 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>51</v>
@@ -11568,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>40</v>
@@ -11577,12 +11524,12 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11596,24 +11543,26 @@
         <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>221</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11662,7 +11611,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11677,7 +11626,7 @@
         <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>40</v>
@@ -11686,16 +11635,16 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11705,7 +11654,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>40</v>
@@ -11714,17 +11663,15 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>226</v>
+        <v>401</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -11761,19 +11708,19 @@
         <v>40</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11791,459 +11738,17 @@
         <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM97">
+  <autoFilter ref="A1:AM93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12253,7 +11758,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/rr-communication.xlsx
+++ b/docs/rr-communication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="405">
   <si>
     <t>Path</t>
   </si>
@@ -634,7 +634,7 @@
     <t>Communication.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}
+    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/ecr-organization}
 </t>
   </si>
   <si>
@@ -975,14 +975,17 @@
 </t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/StructureDefinition/Encounter}
-Reference {http://hl7.org/fhir/StructureDefinition/EpisodeOfCare}</t>
-  </si>
-  <si>
-    <t>Encounter or episode leading to message</t>
-  </si>
-  <si>
-    <t>The encounter within which the communication was sent.</t>
+    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/eicr-encounter}
+</t>
+  </si>
+  <si>
+    <t>eICR encompassing encounter ID</t>
+  </si>
+  <si>
+    <t>The encompassing encounter ID from the eICR that generatedthe Reportability Response.</t>
+  </si>
+  <si>
+    <t>eICR Encompassing Encounter ID</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1030,7 +1033,7 @@
   </si>
   <si>
     <t>Reference {http://hl7.org/fhir/StructureDefinition/Device}
-Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner}</t>
+Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/ecr-organization}Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner}</t>
   </si>
   <si>
     <t>Message sender</t>
@@ -8554,7 +8557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>303</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8651,10 +8654,10 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>254</v>
@@ -8665,7 +8668,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8688,13 +8691,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8745,7 +8748,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8763,10 +8766,10 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -8774,7 +8777,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8797,13 +8800,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8854,7 +8857,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8869,13 +8872,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8883,11 +8886,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8906,16 +8909,16 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8965,7 +8968,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8980,13 +8983,13 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -8994,7 +8997,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9103,7 +9106,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9214,13 +9217,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9239,7 +9242,7 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>96</v>
@@ -9248,7 +9251,7 @@
         <v>97</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9313,7 +9316,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9436,7 +9439,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9547,7 +9550,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9587,7 +9590,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>40</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9681,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>226</v>
@@ -9767,7 +9770,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9878,7 +9881,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9989,7 +9992,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10100,11 +10103,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10126,13 +10129,13 @@
         <v>158</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10161,10 +10164,10 @@
         <v>161</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -10182,7 +10185,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10197,21 +10200,21 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10234,13 +10237,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10291,7 +10294,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10309,18 +10312,18 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10343,13 +10346,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10400,7 +10403,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10412,7 +10415,7 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>253</v>
@@ -10429,7 +10432,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10538,7 +10541,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10645,10 +10648,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>40</v>
@@ -10670,13 +10673,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10742,7 +10745,7 @@
         <v>107</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
@@ -10756,10 +10759,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>40</v>
@@ -10781,13 +10784,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10853,7 +10856,7 @@
         <v>107</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
@@ -10867,11 +10870,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10896,7 +10899,7 @@
         <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>113</v>
@@ -10949,7 +10952,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10978,7 +10981,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11001,13 +11004,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11058,7 +11061,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>51</v>
@@ -11087,7 +11090,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11196,7 +11199,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11307,7 +11310,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11333,10 +11336,10 @@
         <v>202</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>234</v>
@@ -11404,7 +11407,7 @@
         <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>40</v>
@@ -11418,7 +11421,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11444,10 +11447,10 @@
         <v>116</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>240</v>
@@ -11515,7 +11518,7 @@
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>40</v>
@@ -11529,7 +11532,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11555,10 +11558,10 @@
         <v>202</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>246</v>
@@ -11626,7 +11629,7 @@
         <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>40</v>
@@ -11640,7 +11643,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11663,13 +11666,13 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11720,7 +11723,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11738,7 +11741,7 @@
         <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
